--- a/public/templates/kpi-template.xlsx
+++ b/public/templates/kpi-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\開發用資料庫備份\測試用excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D8BA00-F038-4E61-B2EC-6D5E1C857376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832BD622-B666-40B5-BAAD-5A486258134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,14 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工廠/製程廠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>指標類別</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,7 +82,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>公司ID</t>
+    <t>工場/製程區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工廠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工廠ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +450,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -467,43 +467,43 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/public/templates/kpi-template.xlsx
+++ b/public/templates/kpi-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\開發用資料庫備份\測試用excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832BD622-B666-40B5-BAAD-5A486258134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B26512-1A08-48CB-A8D6-834B4FFE51D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>指標類別</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>工廠ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循環</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -458,11 +466,11 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -494,21 +502,32 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{70CCFC96-8053-4FCF-A872-867774AA006C}">
+      <formula1>"111-113年林園總體檢, 114-116年林園自主新循環管理"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/templates/kpi-template.xlsx
+++ b/public/templates/kpi-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\開發用資料庫備份\測試用excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B26512-1A08-48CB-A8D6-834B4FFE51D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67542517-8215-40FC-9A2C-26BF6B84F45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>指標類別</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>指標編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>指標項目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -70,22 +66,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基線值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否應用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目標值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工場/製程區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工廠</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,7 +82,105 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>公式</t>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中日合成林園廠</t>
+  </si>
+  <si>
+    <t>基礎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>製程安全資訊之完整性</t>
+  </si>
+  <si>
+    <t>實際具備製程安全資訊文件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111-113年林園總體檢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(請則一填寫，若無則留空: = 、 &gt; 、 &lt; 、 &gt;= 、 &lt;= )</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>目標值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(僅填寫數值)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基線值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(僅填寫數值)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>工場/製程區</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(若無則留空)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +209,27 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -170,9 +273,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -455,30 +579,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -496,36 +624,82 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="8">
+        <v>21</v>
+      </c>
+      <c r="O2" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{70CCFC96-8053-4FCF-A872-867774AA006C}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576 J1:J2" xr:uid="{70CCFC96-8053-4FCF-A872-867774AA006C}">
       <formula1>"111-113年林園總體檢, 114-116年林園自主新循環管理"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576 I1:I2" xr:uid="{5CEEF584-6BC3-4F07-9DD8-0FD85B835AEB}">
+      <formula1>"是, 否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{7C706EC2-FE7A-44DF-A77B-2E5B9C5B8442}">
+      <formula1>"PSM, EP, FR, ECO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{48C5B548-C62F-4AF3-8527-EF8B20C403A6}">
+      <formula1>"基礎, 客製"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/kpi-template.xlsx
+++ b/public/templates/kpi-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\開發用資料庫備份\測試用excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67542517-8215-40FC-9A2C-26BF6B84F45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DCAF7B-A943-4A61-9250-9BB3EB75C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,23 +117,6 @@
   </si>
   <si>
     <r>
-      <t>公式</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(請則一填寫，若無則留空: = 、 &gt; 、 &lt; 、 &gt;= 、 &lt;= )</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>目標值</t>
     </r>
     <r>
@@ -180,6 +163,23 @@
         <charset val="136"/>
       </rPr>
       <t>(若無則留空)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(請擇一填寫，若無則留空: = 、 &gt; 、 &lt; 、 &gt;= 、 &lt;= )</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -582,7 +582,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>

--- a/public/templates/kpi-template.xlsx
+++ b/public/templates/kpi-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\開發用資料庫備份\測試用excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D曹\宜蓁\績效指標相關內容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DCAF7B-A943-4A61-9250-9BB3EB75C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17430E22-C183-4F7A-992B-F0490BDA9B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>指標類別</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,14 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工廠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工廠ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>循環</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -88,9 +80,6 @@
   <si>
     <t>110年</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中日合成林園廠</t>
   </si>
   <si>
     <t>基礎</t>
@@ -182,6 +171,13 @@
       <t>(請擇一填寫，若無則留空: = 、 &gt; 、 &lt; 、 &gt;= 、 &lt;= )</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是指標(否為計算項目)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -579,18 +575,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="25.140625" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
@@ -598,108 +596,105 @@
     <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="8">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>140</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="8">
-        <v>21</v>
-      </c>
-      <c r="O2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576 J1:J2" xr:uid="{70CCFC96-8053-4FCF-A872-867774AA006C}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576 I1:I2" xr:uid="{70CCFC96-8053-4FCF-A872-867774AA006C}">
       <formula1>"111-113年林園總體檢, 114-116年林園自主新循環管理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576 I1:I2" xr:uid="{5CEEF584-6BC3-4F07-9DD8-0FD85B835AEB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576 H1:H2" xr:uid="{5CEEF584-6BC3-4F07-9DD8-0FD85B835AEB}">
       <formula1>"是, 否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{7C706EC2-FE7A-44DF-A77B-2E5B9C5B8442}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 C1:C2" xr:uid="{7C706EC2-FE7A-44DF-A77B-2E5B9C5B8442}">
       <formula1>"PSM, EP, FR, ECO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{48C5B548-C62F-4AF3-8527-EF8B20C403A6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 B1:B2" xr:uid="{48C5B548-C62F-4AF3-8527-EF8B20C403A6}">
       <formula1>"基礎, 客製"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576 G2" xr:uid="{E71AD626-FD87-4072-B520-5A55D5155D66}">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
